--- a/studentData.xlsx
+++ b/studentData.xlsx
@@ -11,7 +11,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="DATA">DATA!$A$1:$H$549</definedName>
@@ -26,78 +25,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="768">
   <si>
-    <t>SR Number</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Father Name</t>
-  </si>
-  <si>
-    <t>Mother Name</t>
-  </si>
-  <si>
-    <t>Religion</t>
-  </si>
-  <si>
-    <t>Caste</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Last School</t>
-  </si>
-  <si>
-    <t>PEN No.</t>
-  </si>
-  <si>
-    <t>DOB</t>
-  </si>
-  <si>
-    <t>Aadhaar Number</t>
-  </si>
-  <si>
-    <t>Adm Class</t>
-  </si>
-  <si>
-    <t>Admission Date 9</t>
-  </si>
-  <si>
-    <t>Promo Date 9</t>
-  </si>
-  <si>
-    <t>Removal Date 9</t>
-  </si>
-  <si>
-    <t>Admission Date 10</t>
-  </si>
-  <si>
-    <t>Promo Date 10</t>
-  </si>
-  <si>
-    <t>Removal Date 10</t>
-  </si>
-  <si>
-    <t>Admission Date 11</t>
-  </si>
-  <si>
-    <t>Promo Date 11</t>
-  </si>
-  <si>
-    <t>Removal Date 11</t>
-  </si>
-  <si>
-    <t>Admission Date 12</t>
-  </si>
-  <si>
-    <t>Promo Date 12</t>
-  </si>
-  <si>
-    <t>Removal Date 12</t>
-  </si>
-  <si>
     <t>national_religion_caste</t>
   </si>
   <si>
@@ -2328,6 +2255,78 @@
   </si>
   <si>
     <t>कलावती</t>
+  </si>
+  <si>
+    <t>srNumber</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>fatherName</t>
+  </si>
+  <si>
+    <t>motherName</t>
+  </si>
+  <si>
+    <t>religion</t>
+  </si>
+  <si>
+    <t>caste</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>lastSchool</t>
+  </si>
+  <si>
+    <t>penNumberNo</t>
+  </si>
+  <si>
+    <t>dob</t>
+  </si>
+  <si>
+    <t>aadhaarNumber</t>
+  </si>
+  <si>
+    <t>admClass</t>
+  </si>
+  <si>
+    <t>admissionDate9</t>
+  </si>
+  <si>
+    <t>promoDate9</t>
+  </si>
+  <si>
+    <t>removalDate9</t>
+  </si>
+  <si>
+    <t>admissionDate10</t>
+  </si>
+  <si>
+    <t>promoDate10</t>
+  </si>
+  <si>
+    <t>removalDate10</t>
+  </si>
+  <si>
+    <t>admissionDate11</t>
+  </si>
+  <si>
+    <t>promoDate11</t>
+  </si>
+  <si>
+    <t>removalDate11</t>
+  </si>
+  <si>
+    <t>admissionDate12</t>
+  </si>
+  <si>
+    <t>promoDate12</t>
+  </si>
+  <si>
+    <t>removalDate12</t>
   </si>
 </sst>
 </file>
@@ -2590,35 +2589,6 @@
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="TC     9 to 12"/>
-      <sheetName val="SR_Senior"/>
-      <sheetName val="DATA"/>
-      <sheetName val="SR_Junior"/>
-      <sheetName val="JDATA"/>
-      <sheetName val="Remark"/>
-      <sheetName val="Backside"/>
-      <sheetName val="Bonafide"/>
-      <sheetName val="Formulas"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2915,12 +2885,12 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" style="4" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" style="4" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" style="4" customWidth="1"/>
@@ -2950,79 +2920,79 @@
   <sheetData>
     <row r="1" spans="1:25" ht="30">
       <c r="A1" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="Y1" s="4" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -3030,25 +3000,25 @@
         <v>5009</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I2" s="6">
         <v>21252704741</v>
@@ -3073,25 +3043,25 @@
         <v>5010</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I3" s="9">
         <v>21284080795</v>
@@ -3116,25 +3086,25 @@
         <v>5011</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I4" s="5">
         <v>21272582955</v>
@@ -3159,25 +3129,25 @@
         <v>5012</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I5" s="5">
         <v>21570069356</v>
@@ -3202,25 +3172,25 @@
         <v>5013</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I6" s="5">
         <v>21713956108</v>
@@ -3245,25 +3215,25 @@
         <v>5014</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I7" s="5">
         <v>21331163909</v>
@@ -3288,25 +3258,25 @@
         <v>5015</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I8" s="5">
         <v>21293866140</v>
@@ -3331,25 +3301,25 @@
         <v>5016</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I9" s="5">
         <v>21437410340</v>
@@ -3374,25 +3344,25 @@
         <v>5017</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I10" s="5">
         <v>21221492439</v>
@@ -3417,25 +3387,25 @@
         <v>5018</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I11" s="5">
         <v>21266000893</v>
@@ -3460,25 +3430,25 @@
         <v>5019</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I12" s="5">
         <v>21332721959</v>
@@ -3503,25 +3473,25 @@
         <v>5020</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I13" s="5">
         <v>21497578739</v>
@@ -3546,25 +3516,25 @@
         <v>5021</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I14" s="5">
         <v>21508425381</v>
@@ -3589,25 +3559,25 @@
         <v>5022</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I15" s="5">
         <v>21529221328</v>
@@ -3632,25 +3602,25 @@
         <v>5023</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I16" s="5">
         <v>21335094963</v>
@@ -3675,25 +3645,25 @@
         <v>5024</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I17" s="12">
         <v>21248935371</v>
@@ -3718,25 +3688,25 @@
         <v>5025</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I18" s="5">
         <v>21168470567</v>
@@ -3761,25 +3731,25 @@
         <v>5026</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="E19" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>110</v>
-      </c>
       <c r="G19" s="5" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="7">
@@ -3802,19 +3772,19 @@
         <v>5027</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="10" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I20" s="10"/>
       <c r="J20" s="11"/>
@@ -3833,25 +3803,25 @@
         <v>5028</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I21" s="5">
         <v>22656456649</v>
@@ -3876,25 +3846,25 @@
         <v>5029</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I22" s="5">
         <v>21328663572</v>
@@ -3919,25 +3889,25 @@
         <v>5030</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I23" s="5">
         <v>21684433959</v>
@@ -3962,25 +3932,25 @@
         <v>5031</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I24" s="5">
         <v>22744257736</v>
@@ -4005,25 +3975,25 @@
         <v>5032</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I25" s="5">
         <v>22669984873</v>
@@ -4048,17 +4018,17 @@
         <v>5033</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
       <c r="E26" s="17" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
       <c r="H26" s="17" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I26" s="17"/>
       <c r="J26" s="19"/>
@@ -4077,25 +4047,25 @@
         <v>5034</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I27" s="5">
         <v>21565593176</v>
@@ -4120,25 +4090,25 @@
         <v>5035</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I28" s="5">
         <v>21306845231</v>
@@ -4163,25 +4133,25 @@
         <v>5036</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I29" s="5">
         <v>21211459987</v>
@@ -4206,25 +4176,25 @@
         <v>5037</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I30" s="5">
         <v>22694261427</v>
@@ -4249,25 +4219,25 @@
         <v>5038</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I31" s="5">
         <v>21331899175</v>
@@ -4292,25 +4262,25 @@
         <v>5039</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I32" s="5">
         <v>21093943798</v>
@@ -4335,25 +4305,25 @@
         <v>5040</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I33" s="5">
         <v>21374738276</v>
@@ -4378,25 +4348,25 @@
         <v>5041</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I34" s="5">
         <v>21640564687</v>
@@ -4421,25 +4391,25 @@
         <v>5042</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I35" s="5">
         <v>21396008196</v>
@@ -4464,25 +4434,25 @@
         <v>5043</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I36" s="5">
         <v>21565378389</v>
@@ -4507,25 +4477,25 @@
         <v>5044</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I37" s="5">
         <v>21629321551</v>
@@ -4550,25 +4520,25 @@
         <v>5045</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I38" s="5">
         <v>21604206862</v>
@@ -4593,25 +4563,25 @@
         <v>5046</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I39" s="5">
         <v>21551250969</v>
@@ -4636,25 +4606,25 @@
         <v>5047</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I40" s="5">
         <v>21277129086</v>
@@ -4679,25 +4649,25 @@
         <v>5048</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I41" s="5">
         <v>21532731703</v>
@@ -4722,25 +4692,25 @@
         <v>5049</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I42" s="5">
         <v>21461421003</v>
@@ -4765,25 +4735,25 @@
         <v>5050</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I43" s="5">
         <v>22797595466</v>
@@ -4808,25 +4778,25 @@
         <v>5051</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I44" s="5">
         <v>21701633934</v>
@@ -4851,25 +4821,25 @@
         <v>5052</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I45" s="5">
         <v>21479319964</v>
@@ -4894,25 +4864,25 @@
         <v>5053</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I46" s="5">
         <v>21033946285</v>
@@ -4939,25 +4909,25 @@
         <v>5054</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I47" s="21"/>
       <c r="J47" s="7">
@@ -4982,25 +4952,25 @@
         <v>5055</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I48" s="5">
         <v>21016938729</v>
@@ -5027,25 +4997,25 @@
         <v>5056</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I49" s="5">
         <v>21338374597</v>
@@ -5072,25 +5042,25 @@
         <v>5057</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I50" s="5">
         <v>22860946482</v>
@@ -5117,25 +5087,25 @@
         <v>5058</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I51" s="5">
         <v>21282456864</v>
@@ -5162,25 +5132,25 @@
         <v>5059</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="I52" s="5">
         <v>21041915190</v>
@@ -5207,25 +5177,25 @@
         <v>5060</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="I53" s="5">
         <v>21090457728</v>
@@ -5252,25 +5222,25 @@
         <v>5061</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="I54" s="5">
         <v>21044932026</v>
@@ -5297,25 +5267,25 @@
         <v>5062</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="I55" s="5">
         <v>21269781063</v>
@@ -5342,12 +5312,12 @@
         <v>5063</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="C56" s="22"/>
       <c r="D56" s="22"/>
       <c r="E56" s="22" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F56" s="22"/>
       <c r="G56" s="22"/>
@@ -5369,25 +5339,25 @@
         <v>5064</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="I57" s="5">
         <v>22648778778</v>
@@ -5414,25 +5384,25 @@
         <v>5065</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="I58" s="5"/>
       <c r="J58" s="7">
@@ -5457,25 +5427,25 @@
         <v>5066</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="I59" s="5">
         <v>21344472538</v>
@@ -5502,25 +5472,25 @@
         <v>5067</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="I60" s="5">
         <v>23239583919</v>
@@ -5547,14 +5517,14 @@
         <v>5068</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="D61" s="25"/>
       <c r="E61" s="25" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F61" s="25"/>
       <c r="G61" s="25"/>
@@ -5576,25 +5546,25 @@
         <v>5069</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="I62" s="5">
         <v>21173881437</v>
@@ -5621,25 +5591,25 @@
         <v>5070</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="I63" s="5">
         <v>21675041435</v>
@@ -5666,25 +5636,25 @@
         <v>5071</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="I64" s="5">
         <v>21056066707</v>
@@ -5711,25 +5681,25 @@
         <v>5072</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="I65" s="5">
         <v>21647155234</v>
@@ -5756,25 +5726,25 @@
         <v>5073</v>
       </c>
       <c r="B66" s="28" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="C66" s="28" t="s">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="E66" s="28" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F66" s="28" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="G66" s="28" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="H66" s="28" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="I66" s="28">
         <v>21702805832</v>
@@ -5801,25 +5771,25 @@
         <v>5074</v>
       </c>
       <c r="B67" s="28" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="C67" s="28" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="E67" s="28" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F67" s="28" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="G67" s="28" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="H67" s="28" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="I67" s="28">
         <v>21058241470</v>
@@ -5846,25 +5816,25 @@
         <v>5075</v>
       </c>
       <c r="B68" s="28" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="E68" s="27" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F68" s="27" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G68" s="28" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="H68" s="28" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="I68" s="28">
         <v>21048415041</v>
@@ -5891,25 +5861,25 @@
         <v>5076</v>
       </c>
       <c r="B69" s="28" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="C69" s="28" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="D69" s="28" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="E69" s="28" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F69" s="28" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="G69" s="28" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="H69" s="27" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="I69" s="28">
         <v>21036117432</v>
@@ -5936,25 +5906,25 @@
         <v>5077</v>
       </c>
       <c r="B70" s="28" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="C70" s="28" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="E70" s="28" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F70" s="28" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="G70" s="28" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="H70" s="28" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="I70" s="28">
         <v>21045214395</v>
@@ -5981,25 +5951,25 @@
         <v>5078</v>
       </c>
       <c r="B71" s="28" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="D71" s="28" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="E71" s="28" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F71" s="28" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="G71" s="28" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="H71" s="28" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="I71" s="28">
         <v>23315483372</v>
@@ -6026,25 +5996,25 @@
         <v>5079</v>
       </c>
       <c r="B72" s="28" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="C72" s="28" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="D72" s="28" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="E72" s="28" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F72" s="28" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="G72" s="28" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="H72" s="28" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="I72" s="28">
         <v>21754299976</v>
@@ -6071,25 +6041,25 @@
         <v>5080</v>
       </c>
       <c r="B73" s="28" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="C73" s="28" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="D73" s="28" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="E73" s="28" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F73" s="28" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="G73" s="28" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="H73" s="28" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
       <c r="I73" s="28">
         <v>21202643763</v>
@@ -6116,25 +6086,25 @@
         <v>5081</v>
       </c>
       <c r="B74" s="28" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="C74" s="28" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
       <c r="D74" s="28" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="E74" s="28" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F74" s="28" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G74" s="28" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="H74" s="28" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="I74" s="28">
         <v>21329550182</v>
@@ -6161,25 +6131,25 @@
         <v>5082</v>
       </c>
       <c r="B75" s="28" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="C75" s="28" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="E75" s="28" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F75" s="28" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="G75" s="28" t="s">
-        <v>351</v>
+        <v>327</v>
       </c>
       <c r="H75" s="27" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="I75" s="28">
         <v>21724347814</v>
@@ -6206,25 +6176,25 @@
         <v>5083</v>
       </c>
       <c r="B76" s="28" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="C76" s="28" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="D76" s="28" t="s">
-        <v>353</v>
+        <v>329</v>
       </c>
       <c r="E76" s="28" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F76" s="28" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="G76" s="28" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="H76" s="27" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="I76" s="31">
         <v>21593963462</v>
@@ -6251,25 +6221,25 @@
         <v>5084</v>
       </c>
       <c r="B77" s="28" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="C77" s="28" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="D77" s="28" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="E77" s="28" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="F77" s="28" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="G77" s="28" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="H77" s="27" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="I77" s="28">
         <v>21370027538</v>
@@ -6296,25 +6266,25 @@
         <v>5085</v>
       </c>
       <c r="B78" s="28" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="C78" s="28" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="D78" s="28" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="E78" s="28" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F78" s="28" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G78" s="28" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="H78" s="27" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="I78" s="28">
         <v>22985945589</v>
@@ -6341,25 +6311,25 @@
         <v>5086</v>
       </c>
       <c r="B79" s="28" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="C79" s="28" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="D79" s="28" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="E79" s="28" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F79" s="28" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G79" s="28" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="H79" s="28" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="I79" s="28">
         <v>21294775563</v>
@@ -6386,25 +6356,25 @@
         <v>5087</v>
       </c>
       <c r="B80" s="28" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="C80" s="28" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="D80" s="28" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="E80" s="28" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F80" s="28" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G80" s="28" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H80" s="28" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="I80" s="31">
         <v>21054791111</v>
@@ -6431,25 +6401,25 @@
         <v>5088</v>
       </c>
       <c r="B81" s="28" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="C81" s="28" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="D81" s="28" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="E81" s="28" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F81" s="28" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G81" s="28" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="H81" s="28" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="I81" s="28">
         <v>21728675556</v>
@@ -6476,25 +6446,25 @@
         <v>5089</v>
       </c>
       <c r="B82" s="28" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="C82" s="28" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="E82" s="28" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F82" s="28" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G82" s="28" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="H82" s="28" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="I82" s="28">
         <v>21520906193</v>
@@ -6521,31 +6491,31 @@
         <v>5090</v>
       </c>
       <c r="B83" s="28" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="C83" s="28" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D83" s="28" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="E83" s="28" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F83" s="28" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="G83" s="28" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="H83" s="28" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="I83" s="32">
         <v>21263657406</v>
       </c>
       <c r="J83" s="29" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="K83" s="30">
         <v>721192690751</v>
@@ -6566,25 +6536,25 @@
         <v>5091</v>
       </c>
       <c r="B84" s="28" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="C84" s="28" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="D84" s="28" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="E84" s="28" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F84" s="28" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G84" s="28" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
       <c r="H84" s="28" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="I84" s="28">
         <v>21439646642</v>
@@ -6611,25 +6581,25 @@
         <v>5092</v>
       </c>
       <c r="B85" s="28" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="C85" s="28" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="D85" s="28" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="E85" s="28" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F85" s="28" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G85" s="28" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="H85" s="28" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="I85" s="28">
         <v>21570467528</v>
@@ -6656,25 +6626,25 @@
         <v>5093</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="I86" s="4">
         <v>23241370372</v>
@@ -6701,25 +6671,25 @@
         <v>5094</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="H87" s="28" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="I87" s="32">
         <v>21356582240</v>
@@ -6746,25 +6716,25 @@
         <v>5095</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>407</v>
+        <v>383</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="I88" s="4">
         <v>21559504102</v>
@@ -6791,25 +6761,25 @@
         <v>5096</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>411</v>
+        <v>387</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>413</v>
+        <v>389</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>415</v>
+        <v>391</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="H89" s="28" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
       <c r="I89" s="4">
         <v>21197451422</v>
@@ -6836,25 +6806,25 @@
         <v>5097</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>419</v>
+        <v>395</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="I90" s="4">
         <v>21297882094</v>
@@ -6881,22 +6851,22 @@
         <v>5098</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
       <c r="I91" s="4">
         <v>21240832326</v>
@@ -6923,25 +6893,25 @@
         <v>5099</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>427</v>
+        <v>403</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>428</v>
+        <v>404</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>430</v>
+        <v>406</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I92" s="4">
         <v>21150010203</v>
@@ -6968,25 +6938,25 @@
         <v>5100</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>431</v>
+        <v>407</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>432</v>
+        <v>408</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>433</v>
+        <v>409</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="I93" s="32">
         <v>21575762580</v>
@@ -7013,25 +6983,25 @@
         <v>5101</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>436</v>
+        <v>412</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>437</v>
+        <v>413</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
       <c r="I94" s="4">
         <v>21740881984</v>
@@ -7058,25 +7028,25 @@
         <v>5102</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>440</v>
+        <v>416</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>444</v>
+        <v>420</v>
       </c>
       <c r="I95" s="32">
         <v>21234643065</v>
@@ -7103,25 +7073,25 @@
         <v>5103</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>446</v>
+        <v>422</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>447</v>
+        <v>423</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>448</v>
+        <v>424</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>449</v>
+        <v>425</v>
       </c>
       <c r="I96" s="4">
         <v>21046817886</v>
@@ -7148,25 +7118,25 @@
         <v>5104</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>450</v>
+        <v>426</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>451</v>
+        <v>427</v>
       </c>
       <c r="D97" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G97" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="E97" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F97" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G97" s="4" t="s">
-        <v>452</v>
-      </c>
       <c r="H97" s="4" t="s">
-        <v>453</v>
+        <v>429</v>
       </c>
       <c r="I97" s="4">
         <v>21742706289</v>
@@ -7193,25 +7163,25 @@
         <v>5105</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>454</v>
+        <v>430</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>455</v>
+        <v>431</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>457</v>
+        <v>433</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>458</v>
+        <v>434</v>
       </c>
       <c r="I98" s="32">
         <v>21796926750</v>
@@ -7238,25 +7208,25 @@
         <v>5106</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>459</v>
+        <v>435</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>460</v>
+        <v>436</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="I99" s="4">
         <v>21675135410</v>
@@ -7283,25 +7253,25 @@
         <v>5107</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>467</v>
+        <v>443</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="I100" s="32">
         <v>22619081404</v>
@@ -7328,25 +7298,25 @@
         <v>5108</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>468</v>
+        <v>444</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>469</v>
+        <v>445</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>470</v>
+        <v>446</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>471</v>
+        <v>447</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>472</v>
+        <v>448</v>
       </c>
       <c r="I101" s="4">
         <v>21348331738</v>
@@ -7373,25 +7343,25 @@
         <v>5109</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>473</v>
+        <v>449</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>474</v>
+        <v>450</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>475</v>
+        <v>451</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>477</v>
+        <v>453</v>
       </c>
       <c r="J102" s="33">
         <v>40544</v>
@@ -7415,25 +7385,25 @@
         <v>5110</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
       <c r="I103" s="4">
         <v>23021616622</v>
@@ -7460,25 +7430,25 @@
         <v>5111</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>483</v>
+        <v>459</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>484</v>
+        <v>460</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>485</v>
+        <v>461</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>486</v>
+        <v>462</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>487</v>
+        <v>463</v>
       </c>
       <c r="J104" s="33">
         <v>39539</v>
@@ -7502,25 +7472,25 @@
         <v>5112</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>488</v>
+        <v>464</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>489</v>
+        <v>465</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>490</v>
+        <v>466</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="H105" s="28" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="I105" s="4">
         <v>21333712348</v>
@@ -7547,25 +7517,25 @@
         <v>5113</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>493</v>
+        <v>469</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>494</v>
+        <v>470</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>495</v>
+        <v>471</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="I106" s="4">
         <v>21518418603</v>
@@ -7592,25 +7562,25 @@
         <v>5114</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>496</v>
+        <v>472</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>497</v>
+        <v>473</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>498</v>
+        <v>474</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>499</v>
+        <v>475</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>477</v>
+        <v>453</v>
       </c>
       <c r="J107" s="33">
         <v>39630</v>
@@ -7634,25 +7604,25 @@
         <v>5115</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>500</v>
+        <v>476</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>501</v>
+        <v>477</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>502</v>
+        <v>478</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>503</v>
+        <v>479</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>504</v>
+        <v>480</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="I108" s="4">
         <v>22822068994</v>
@@ -7679,25 +7649,25 @@
         <v>5116</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>506</v>
+        <v>482</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>507</v>
+        <v>483</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>508</v>
+        <v>484</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="J109" s="33">
         <v>40060</v>
@@ -7721,25 +7691,25 @@
         <v>5117</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>510</v>
+        <v>486</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>511</v>
+        <v>487</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>512</v>
+        <v>488</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>477</v>
+        <v>453</v>
       </c>
       <c r="J110" s="33">
         <v>39263</v>
@@ -7763,25 +7733,25 @@
         <v>5118</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>513</v>
+        <v>489</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>514</v>
+        <v>490</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>515</v>
+        <v>491</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>516</v>
+        <v>492</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
       <c r="I111" s="4">
         <v>21470226638</v>
@@ -7808,25 +7778,25 @@
         <v>5119</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>519</v>
+        <v>495</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>521</v>
+        <v>497</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>522</v>
+        <v>498</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>523</v>
+        <v>499</v>
       </c>
       <c r="I112" s="4">
         <v>21176347046</v>
@@ -7853,25 +7823,25 @@
         <v>5120</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>524</v>
+        <v>500</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>525</v>
+        <v>501</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>526</v>
+        <v>502</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>527</v>
+        <v>503</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>528</v>
+        <v>504</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
       <c r="I113" s="4">
         <v>23021616622</v>
@@ -7898,25 +7868,25 @@
         <v>5121</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>529</v>
+        <v>505</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>530</v>
+        <v>506</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>531</v>
+        <v>507</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="I114" s="4">
         <v>21541463064</v>
@@ -7943,22 +7913,22 @@
         <v>5122</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>533</v>
+        <v>509</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>534</v>
+        <v>510</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>535</v>
+        <v>511</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>536</v>
+        <v>512</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>537</v>
+        <v>513</v>
       </c>
       <c r="I115" s="4">
         <v>21188682366</v>
@@ -7985,25 +7955,25 @@
         <v>5123</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>538</v>
+        <v>514</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>539</v>
+        <v>515</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>540</v>
+        <v>516</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>472</v>
+        <v>448</v>
       </c>
       <c r="I116" s="4">
         <v>21980880118</v>
@@ -8030,25 +8000,25 @@
         <v>5124</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>542</v>
+        <v>518</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>543</v>
+        <v>519</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>544</v>
+        <v>520</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>545</v>
+        <v>521</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>546</v>
+        <v>522</v>
       </c>
       <c r="J117" s="33">
         <v>40021</v>
@@ -8072,25 +8042,25 @@
         <v>5125</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>547</v>
+        <v>523</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>548</v>
+        <v>524</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>549</v>
+        <v>525</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>550</v>
+        <v>526</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
       <c r="I118" s="4">
         <v>23019066379</v>
@@ -8117,25 +8087,25 @@
         <v>5126</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="I119" s="4">
         <v>21457766088</v>
@@ -8162,25 +8132,25 @@
         <v>5127</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>554</v>
+        <v>530</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>555</v>
+        <v>531</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
       <c r="I120" s="4">
         <v>21665344400</v>
@@ -8207,25 +8177,25 @@
         <v>5128</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>556</v>
+        <v>532</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>557</v>
+        <v>533</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>558</v>
+        <v>534</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="I121" s="4">
         <v>21576330526</v>
@@ -8252,25 +8222,25 @@
         <v>5129</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>559</v>
+        <v>535</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>560</v>
+        <v>536</v>
       </c>
       <c r="I122" s="4">
         <v>21567462715</v>
@@ -8297,25 +8267,25 @@
         <v>5130</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>561</v>
+        <v>537</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>562</v>
+        <v>538</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>563</v>
+        <v>539</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="I123" s="4">
         <v>22669114417</v>
@@ -8342,25 +8312,25 @@
         <v>5131</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>566</v>
+        <v>542</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>567</v>
+        <v>543</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>568</v>
+        <v>544</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>569</v>
+        <v>545</v>
       </c>
       <c r="I124" s="4">
         <v>21134437070</v>
@@ -8387,25 +8357,25 @@
         <v>5132</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>570</v>
+        <v>546</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>571</v>
+        <v>547</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>572</v>
+        <v>548</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>573</v>
+        <v>549</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>574</v>
+        <v>550</v>
       </c>
       <c r="J125" s="33">
         <v>40106</v>
@@ -8429,25 +8399,25 @@
         <v>5133</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>575</v>
+        <v>551</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>576</v>
+        <v>552</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>577</v>
+        <v>553</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>578</v>
+        <v>554</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>579</v>
+        <v>555</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>580</v>
+        <v>556</v>
       </c>
       <c r="I126" s="4">
         <v>22622638144</v>
@@ -8474,25 +8444,25 @@
         <v>5134</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>581</v>
+        <v>557</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>582</v>
+        <v>558</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>583</v>
+        <v>559</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>584</v>
+        <v>560</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>523</v>
+        <v>499</v>
       </c>
       <c r="J127" s="33">
         <v>40245</v>
@@ -8516,25 +8486,25 @@
         <v>5135</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>585</v>
+        <v>561</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>586</v>
+        <v>562</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>587</v>
+        <v>563</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>588</v>
+        <v>564</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>589</v>
+        <v>565</v>
       </c>
       <c r="J128" s="33">
         <v>40544</v>
@@ -8558,25 +8528,25 @@
         <v>5136</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>590</v>
+        <v>566</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>591</v>
+        <v>567</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>592</v>
+        <v>568</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="J129" s="33">
         <v>40544</v>
@@ -8600,25 +8570,25 @@
         <v>5137</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>593</v>
+        <v>569</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>594</v>
+        <v>570</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>595</v>
+        <v>571</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>596</v>
+        <v>572</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>597</v>
+        <v>573</v>
       </c>
       <c r="J130" s="33">
         <v>40179</v>
@@ -8642,25 +8612,25 @@
         <v>5138</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>598</v>
+        <v>574</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>599</v>
+        <v>575</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>600</v>
+        <v>576</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>601</v>
+        <v>577</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>602</v>
+        <v>578</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
       <c r="I131" s="4">
         <v>23124576804</v>
@@ -8687,25 +8657,25 @@
         <v>5139</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>603</v>
+        <v>579</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>571</v>
+        <v>547</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>604</v>
+        <v>580</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>606</v>
+        <v>582</v>
       </c>
       <c r="J132" s="33">
         <v>40179</v>
@@ -8729,25 +8699,25 @@
         <v>5140</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>607</v>
+        <v>583</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>608</v>
+        <v>584</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>609</v>
+        <v>585</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>610</v>
+        <v>586</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="J133" s="33">
         <v>40331</v>
@@ -8771,25 +8741,25 @@
         <v>5141</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>612</v>
+        <v>588</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>613</v>
+        <v>589</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>614</v>
+        <v>590</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>615</v>
+        <v>591</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="I134" s="4">
         <v>23087836484</v>
@@ -8816,25 +8786,25 @@
         <v>5142</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>616</v>
+        <v>592</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>571</v>
+        <v>547</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>617</v>
+        <v>593</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>618</v>
+        <v>594</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>619</v>
+        <v>595</v>
       </c>
       <c r="J135" s="33">
         <v>39448</v>
@@ -8858,25 +8828,25 @@
         <v>5143</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>620</v>
+        <v>596</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>621</v>
+        <v>597</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>622</v>
+        <v>598</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>623</v>
+        <v>599</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>624</v>
+        <v>600</v>
       </c>
       <c r="I136" s="4">
         <v>21454257936</v>
@@ -8903,25 +8873,25 @@
         <v>5144</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>621</v>
+        <v>597</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>622</v>
+        <v>598</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>625</v>
+        <v>601</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>626</v>
+        <v>602</v>
       </c>
       <c r="I137" s="4">
         <v>21527084912</v>
@@ -8948,25 +8918,25 @@
         <v>5145</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>627</v>
+        <v>603</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>628</v>
+        <v>604</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>629</v>
+        <v>605</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>610</v>
+        <v>586</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>630</v>
+        <v>606</v>
       </c>
       <c r="I138" s="4">
         <v>21167351090</v>
@@ -8993,10 +8963,10 @@
         <v>5146</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="Y139" s="4" t="str">
         <f t="shared" si="2"/>
@@ -9008,25 +8978,25 @@
         <v>5147</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>631</v>
+        <v>607</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>632</v>
+        <v>608</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="I140" s="4">
         <v>21131247629</v>
@@ -9053,25 +9023,25 @@
         <v>5148</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>633</v>
+        <v>609</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>634</v>
+        <v>610</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>635</v>
+        <v>611</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>636</v>
+        <v>612</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>637</v>
+        <v>613</v>
       </c>
       <c r="I141" s="4">
         <v>21239195560</v>
@@ -9098,25 +9068,25 @@
         <v>5149</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>638</v>
+        <v>614</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>639</v>
+        <v>615</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>640</v>
+        <v>616</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>641</v>
+        <v>617</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>642</v>
+        <v>618</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>643</v>
+        <v>619</v>
       </c>
       <c r="J142" s="33">
         <v>40179</v>
@@ -9140,25 +9110,25 @@
         <v>5150</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>644</v>
+        <v>620</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>645</v>
+        <v>621</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>646</v>
+        <v>622</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>647</v>
+        <v>623</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>626</v>
+        <v>602</v>
       </c>
       <c r="I143" s="4">
         <v>21226098436</v>
@@ -9185,10 +9155,10 @@
         <v>5151</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="Y144" s="4" t="str">
         <f t="shared" si="2"/>
@@ -9200,25 +9170,25 @@
         <v>5152</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>648</v>
+        <v>624</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>649</v>
+        <v>625</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>650</v>
+        <v>626</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>651</v>
+        <v>627</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>606</v>
+        <v>582</v>
       </c>
       <c r="J145" s="33">
         <v>40179</v>
@@ -9242,25 +9212,25 @@
         <v>5153</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>567</v>
+        <v>543</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>653</v>
+        <v>629</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>487</v>
+        <v>463</v>
       </c>
       <c r="J146" s="33">
         <v>39722</v>
@@ -9284,25 +9254,25 @@
         <v>5154</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>654</v>
+        <v>630</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>655</v>
+        <v>631</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>656</v>
+        <v>632</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>657</v>
+        <v>633</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>658</v>
+        <v>634</v>
       </c>
       <c r="J147" s="33">
         <v>40735</v>
@@ -9326,10 +9296,10 @@
         <v>5155</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="Y148" s="4" t="str">
         <f t="shared" si="2"/>
@@ -9341,10 +9311,10 @@
         <v>5156</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="Y149" s="4" t="str">
         <f t="shared" si="2"/>
@@ -9356,25 +9326,25 @@
         <v>5157</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>659</v>
+        <v>635</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>660</v>
+        <v>636</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>661</v>
+        <v>637</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>662</v>
+        <v>638</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="I150" s="4">
         <v>21480326364</v>
@@ -9401,25 +9371,25 @@
         <v>5158</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>663</v>
+        <v>639</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>664</v>
+        <v>640</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>665</v>
+        <v>641</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>666</v>
+        <v>642</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>667</v>
+        <v>643</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>668</v>
+        <v>644</v>
       </c>
       <c r="J151" s="33">
         <v>40497</v>
@@ -9443,25 +9413,25 @@
         <v>5159</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>655</v>
+        <v>631</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>669</v>
+        <v>645</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>670</v>
+        <v>646</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="J152" s="33">
         <v>40544</v>
@@ -9495,25 +9465,25 @@
         <v>5162</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>671</v>
+        <v>647</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>672</v>
+        <v>648</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>673</v>
+        <v>649</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>674</v>
+        <v>650</v>
       </c>
       <c r="H155" s="4" t="s">
-        <v>675</v>
+        <v>651</v>
       </c>
       <c r="J155" s="33">
         <v>40544</v>
@@ -9537,25 +9507,25 @@
         <v>5163</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>676</v>
+        <v>652</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>677</v>
+        <v>653</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>661</v>
+        <v>637</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>678</v>
+        <v>654</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="I156" s="4">
         <v>21444594840</v>
@@ -9582,25 +9552,25 @@
         <v>5164</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>612</v>
+        <v>588</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>677</v>
+        <v>653</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>661</v>
+        <v>637</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>678</v>
+        <v>654</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="J157" s="33">
         <v>39814</v>
@@ -9629,25 +9599,25 @@
         <v>5166</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>679</v>
+        <v>655</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>539</v>
+        <v>515</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>680</v>
+        <v>656</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>650</v>
+        <v>626</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>681</v>
+        <v>657</v>
       </c>
       <c r="H159" s="4" t="s">
-        <v>682</v>
+        <v>658</v>
       </c>
       <c r="J159" s="33">
         <v>39934</v>
@@ -9671,25 +9641,25 @@
         <v>5167</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>683</v>
+        <v>659</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>684</v>
+        <v>660</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>685</v>
+        <v>661</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>686</v>
+        <v>662</v>
       </c>
       <c r="H160" s="4" t="s">
-        <v>687</v>
+        <v>663</v>
       </c>
       <c r="J160" s="33">
         <v>40943</v>
@@ -9713,25 +9683,25 @@
         <v>5168</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>688</v>
+        <v>664</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>689</v>
+        <v>665</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>690</v>
+        <v>666</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>661</v>
+        <v>637</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>678</v>
+        <v>654</v>
       </c>
       <c r="H161" s="4" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="J161" s="33">
         <v>40624</v>
@@ -9755,25 +9725,25 @@
         <v>5169</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>691</v>
+        <v>667</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>689</v>
+        <v>665</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>690</v>
+        <v>666</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>661</v>
+        <v>637</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>678</v>
+        <v>654</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="I162" s="4">
         <v>21323777901</v>
@@ -9800,25 +9770,25 @@
         <v>5170</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>692</v>
+        <v>668</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>693</v>
+        <v>669</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>694</v>
+        <v>670</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>695</v>
+        <v>671</v>
       </c>
       <c r="H163" s="4" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
       <c r="I163" s="4">
         <v>21128735800</v>
@@ -9845,25 +9815,25 @@
         <v>5171</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>696</v>
+        <v>672</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>697</v>
+        <v>673</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>698</v>
+        <v>674</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>699</v>
+        <v>675</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>700</v>
+        <v>676</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="I164" s="4">
         <v>22607879346</v>
@@ -9890,25 +9860,25 @@
         <v>5172</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>701</v>
+        <v>677</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>576</v>
+        <v>552</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>702</v>
+        <v>678</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>703</v>
+        <v>679</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="I165" s="4">
         <v>21287973120</v>
@@ -9935,25 +9905,25 @@
         <v>5173</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>704</v>
+        <v>680</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>705</v>
+        <v>681</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>706</v>
+        <v>682</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>707</v>
+        <v>683</v>
       </c>
       <c r="H166" s="4" t="s">
-        <v>708</v>
+        <v>684</v>
       </c>
       <c r="I166" s="4">
         <v>21439393041</v>
@@ -9980,25 +9950,25 @@
         <v>5174</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>709</v>
+        <v>685</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>710</v>
+        <v>686</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>711</v>
+        <v>687</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>712</v>
+        <v>688</v>
       </c>
       <c r="H167" s="4" t="s">
-        <v>624</v>
+        <v>600</v>
       </c>
       <c r="I167" s="4">
         <v>21044679783</v>
@@ -10025,25 +9995,25 @@
         <v>5175</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>713</v>
+        <v>689</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>714</v>
+        <v>690</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>715</v>
+        <v>691</v>
       </c>
       <c r="I168" s="4">
         <v>21689299178</v>
@@ -10070,25 +10040,25 @@
         <v>5176</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>716</v>
+        <v>692</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>717</v>
+        <v>693</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>718</v>
+        <v>694</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>719</v>
+        <v>695</v>
       </c>
       <c r="H169" s="4" t="s">
-        <v>720</v>
+        <v>696</v>
       </c>
       <c r="J169" s="33">
         <v>40179</v>
@@ -10112,25 +10082,25 @@
         <v>5177</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>721</v>
+        <v>697</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>722</v>
+        <v>698</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>723</v>
+        <v>699</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>724</v>
+        <v>700</v>
       </c>
       <c r="H170" s="4" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I170" s="4">
         <v>22811443187</v>
@@ -10157,25 +10127,25 @@
         <v>5178</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>725</v>
+        <v>701</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>726</v>
+        <v>702</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>727</v>
+        <v>703</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>728</v>
+        <v>704</v>
       </c>
       <c r="H171" s="4" t="s">
-        <v>729</v>
+        <v>705</v>
       </c>
       <c r="J171" s="33">
         <v>40179</v>
@@ -10199,25 +10169,25 @@
         <v>5179</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>730</v>
+        <v>706</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>731</v>
+        <v>707</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>732</v>
+        <v>708</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>733</v>
+        <v>709</v>
       </c>
       <c r="H172" s="4" t="s">
-        <v>453</v>
+        <v>429</v>
       </c>
       <c r="I172" s="4">
         <v>21201958778</v>
@@ -10244,25 +10214,25 @@
         <v>5180</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>734</v>
+        <v>710</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>735</v>
+        <v>711</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>736</v>
+        <v>712</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>737</v>
+        <v>713</v>
       </c>
       <c r="H173" s="4" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="I173" s="4">
         <v>21360913991</v>
@@ -10289,25 +10259,25 @@
         <v>5181</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>738</v>
+        <v>714</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>739</v>
+        <v>715</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>740</v>
+        <v>716</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>741</v>
+        <v>717</v>
       </c>
       <c r="H174" s="4" t="s">
-        <v>675</v>
+        <v>651</v>
       </c>
       <c r="J174" s="33">
         <v>40770</v>
@@ -10331,10 +10301,10 @@
         <v>5182</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="Y175" s="4" t="str">
         <f t="shared" si="2"/>
@@ -10346,25 +10316,25 @@
         <v>5183</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>742</v>
+        <v>718</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>743</v>
+        <v>719</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>744</v>
+        <v>720</v>
       </c>
       <c r="H176" s="4" t="s">
-        <v>453</v>
+        <v>429</v>
       </c>
       <c r="I176" s="4">
         <v>21489875915</v>
@@ -10391,25 +10361,25 @@
         <v>5184</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>745</v>
+        <v>721</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>693</v>
+        <v>669</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>746</v>
+        <v>722</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>661</v>
+        <v>637</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>747</v>
+        <v>723</v>
       </c>
       <c r="H177" s="4" t="s">
-        <v>624</v>
+        <v>600</v>
       </c>
       <c r="I177" s="4">
         <v>21324338441</v>
@@ -10436,25 +10406,25 @@
         <v>5185</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>748</v>
+        <v>724</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>749</v>
+        <v>725</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>750</v>
+        <v>726</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>751</v>
+        <v>727</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>752</v>
+        <v>728</v>
       </c>
       <c r="H178" s="4" t="s">
-        <v>753</v>
+        <v>729</v>
       </c>
       <c r="J178" s="33">
         <v>39814</v>
@@ -10478,25 +10448,25 @@
         <v>5186</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>754</v>
+        <v>730</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>755</v>
+        <v>731</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F179" s="4" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>756</v>
+        <v>732</v>
       </c>
       <c r="H179" s="4" t="s">
-        <v>757</v>
+        <v>733</v>
       </c>
       <c r="J179" s="33">
         <v>40343</v>
@@ -10520,25 +10490,25 @@
         <v>5187</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>758</v>
+        <v>734</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>759</v>
+        <v>735</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>760</v>
+        <v>736</v>
       </c>
       <c r="H180" s="4" t="s">
-        <v>761</v>
+        <v>737</v>
       </c>
       <c r="I180" s="4">
         <v>21332949789</v>
@@ -10565,25 +10535,25 @@
         <v>5188</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>762</v>
+        <v>738</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>763</v>
+        <v>739</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>764</v>
+        <v>740</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>765</v>
+        <v>741</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="I181" s="4">
         <v>22645316548</v>
@@ -10610,25 +10580,25 @@
         <v>5189</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>766</v>
+        <v>742</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>767</v>
+        <v>743</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I182" s="4">
         <v>21645041566</v>
